--- a/similarities/split_global/harmonic_similarity_timestamps_385.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_385.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,730 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F/5', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db', 'Eb:min7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'F:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['D:min7', 'G:7', 'C', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.400000', '0:00:22.100000')]</t>
+          <t>('0:00:37.750000', '0:00:42.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:15.380000', '0:00:17.560000')]</t>
+          <t>('0:02:03.300000', '0:02:08.750000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=19.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=123.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'F#:dim7', 'G:min', 'F#:dim7'], ['D:7', 'G:min', 'F#:dim7', 'G:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.720000'), ('0:01:12.840000', '0:01:22.480000')]</t>
+          <t>('0:00:20.780000', '0:00:31.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:18.200000', '0:00:23.320000'), ('0:00:16.920000', '0:00:22.040000')]</t>
+          <t>('0:01:00.800000', '0:01:09.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=72.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=18.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+          <t>('0:00:08.340000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Eb', 'F:min', 'Bb:7', 'Eb', 'F:min', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:00:22.620000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:06.260000', '0:00:21.040000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=22.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:51.460000', '0:02:04.800000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=111.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:22.520000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Db/2', 'Ab:maj', 'Ab:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D', 'A', 'A:7/b7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:01:30.236000', '0:01:38.612000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:01:03.382018', '0:01:11.149092')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:36.500000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.200000')]</t>
+          <t>('0:01:37.640000', '0:01:51')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:00:58.460000', '0:01:03.460000'), ('0:01:10.060000', '0:01:20.280000')]</t>
+          <t>('0:01:10.740000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.680000', '0:00:32.360000'), ('0:01:16.560000', '0:01:20.800000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:01:00.040000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=60.04</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.880000', '0:00:06.560000'), ('0:00:43.140000', '0:01:00.240000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+          <t>('0:01:03.840000', '0:01:06.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000'), ('0:03:56.400000', '0:04:02.100000'), ('0:00:23.980000', '0:00:29.420000')]</t>
+          <t>('0:00:31.140000', '0:00:41.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=31.14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'C:7']]</t>
+          <t>['E:min7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>['D:min7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:11.920000')]</t>
+          <t>('0:00:28.130000', '0:00:30.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000')]</t>
+          <t>('0:00:38.371000', '0:00:43.027000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=38.371</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
